--- a/doc/外部設計/04_外部設計書(カレンダー画面)_チーム名 のコピー.xlsx
+++ b/doc/外部設計/04_外部設計書(カレンダー画面)_チーム名 のコピー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3649028-9DB8-4C70-8273-FEE7A62CC918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A754150-3C60-4A99-811A-BF57E06A5CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -260,32 +260,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>5.「追加ボタン」をタップすると、予定登録画面に遷移。</t>
-    <rPh sb="3" eb="5">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="17" eb="23">
-      <t>ヨテイトウロクガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>6.カレンダーの「日にちボタン」をタップすると、予定登録画面に遷移。</t>
-    <rPh sb="9" eb="10">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="24" eb="30">
-      <t>ヨテイトウロクガメン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>「１.ホームボタン」をタップした時</t>
   </si>
   <si>
@@ -331,11 +305,175 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>add</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>年月表示</t>
+    <rPh sb="0" eb="4">
+      <t>ネンゲツヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>追加ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カレンダー表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>yearmonth</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>※タップするとそれぞれの画面に遷移する</t>
-    <rPh sb="12" eb="14">
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7.「カレンダー表示」</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5.「移動ボタン」</t>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・「＜」をタップすると、前の月に移動する。</t>
+    <rPh sb="12" eb="13">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・「＞」をタップすると、次の月に移動する。</t>
+    <rPh sb="12" eb="13">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移動ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カレンダー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>久保結貴</t>
+    <rPh sb="0" eb="2">
+      <t>クボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>syuudeen</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日付をタップすると、日付詳細画面に遷移。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="10" eb="16">
+      <t>ヒヅケショウサイガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>予定がある日に印をつける（〇を付ける）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日付部分をタップすると、日付詳細画面に遷移。</t>
+    <rPh sb="0" eb="4">
+      <t>ヒヅケブブン</t>
+    </rPh>
+    <rPh sb="12" eb="18">
+      <t>ヒヅケショウサイガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6.「追加ボタン」をタップすると、カレンダー登録画面に遷移。</t>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="15" eb="17">
+    <rPh sb="27" eb="29">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -713,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -820,6 +958,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,16 +995,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>222585</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>138029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>39202</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>172887</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>149016</xdr:rowOff>
+      <xdr:rowOff>115595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -892,8 +1033,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3644900" y="1123950"/>
-          <a:ext cx="3252302" cy="3787566"/>
+          <a:off x="3531269" y="1098884"/>
+          <a:ext cx="3208855" cy="3820987"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1129,16 +1270,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89903</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>172787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>175462</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>33421</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1153,8 +1294,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4070350" y="1638300"/>
-          <a:ext cx="387350" cy="387350"/>
+          <a:off x="4902535" y="1517984"/>
+          <a:ext cx="336216" cy="437148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1204,15 +1345,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:colOff>13369</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>43781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>143377</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>50131</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1227,8 +1368,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6826250" y="1676400"/>
-          <a:ext cx="387350" cy="387350"/>
+          <a:off x="6580606" y="1581149"/>
+          <a:ext cx="380666" cy="390693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1258,18 +1399,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>６</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1337,8 +1473,234 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>６</a:t>
+            <a:t>７</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>116973</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>246981</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>173454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028957EF-CEE4-46F9-A30E-59D497E524DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3926973" y="1704473"/>
+          <a:ext cx="380666" cy="390692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>５</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151848</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>248478</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>55217</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C968B9EC-2ABD-4C85-137D-1E866C8BBD3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3768587" y="2091358"/>
+          <a:ext cx="2905815" cy="282989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>172554</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>186359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>13804</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>103532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A856C2C-8E6C-4EC4-8904-3D86A837D956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3789293" y="4438098"/>
+          <a:ext cx="2905815" cy="496956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="windowText" lastClr="000000"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:shade val="50000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1668,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN109"/>
+  <dimension ref="A1:AN117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1699,7 +2061,9 @@
       </c>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="N1" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="O1" s="28"/>
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
@@ -1712,17 +2076,19 @@
         <v>7</v>
       </c>
       <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
+      <c r="Y1" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="Z1" s="28"/>
       <c r="AA1" s="28"/>
       <c r="AB1" s="28"/>
       <c r="AC1" s="28"/>
       <c r="AD1" s="28"/>
       <c r="AE1" s="28"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AF1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="41"/>
+      <c r="AG1" s="42"/>
       <c r="AH1" s="35"/>
       <c r="AI1" s="35"/>
       <c r="AJ1" s="35"/>
@@ -1747,7 +2113,9 @@
       </c>
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="N2" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
@@ -1760,24 +2128,26 @@
         <v>1</v>
       </c>
       <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="Y2" s="38">
+        <v>45085</v>
+      </c>
       <c r="Z2" s="37"/>
       <c r="AA2" s="37"/>
       <c r="AB2" s="37"/>
       <c r="AC2" s="37"/>
       <c r="AD2" s="37"/>
       <c r="AE2" s="37"/>
-      <c r="AF2" s="38" t="s">
+      <c r="AF2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="40"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
@@ -3516,7 +3886,7 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -3559,7 +3929,9 @@
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -3599,8 +3971,10 @@
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="8" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -3641,6 +4015,8 @@
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -3681,8 +4057,10 @@
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="8" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -3723,9 +4101,9 @@
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="E51" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -3765,7 +4143,9 @@
     <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="E52" s="8"/>
+      <c r="E52" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -3806,7 +4186,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="E53" s="8" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -3816,11 +4196,11 @@
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
@@ -3847,7 +4227,9 @@
     <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="E54" s="8"/>
+      <c r="E54" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -3856,11 +4238,11 @@
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
@@ -3887,9 +4269,7 @@
     <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="E55" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -3898,11 +4278,11 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
@@ -3929,9 +4309,7 @@
     <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="E56" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -3972,7 +4350,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="E57" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -4014,7 +4392,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="E58" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -4055,9 +4433,7 @@
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="E59" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -4097,7 +4473,9 @@
     <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="E60" s="8"/>
+      <c r="E60" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -4106,11 +4484,11 @@
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
@@ -4146,11 +4524,11 @@
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
@@ -4177,7 +4555,9 @@
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="E62" s="8"/>
+      <c r="E62" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -4186,11 +4566,11 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
@@ -4217,7 +4597,9 @@
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="E63" s="8"/>
+      <c r="E63" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -4257,7 +4639,9 @@
     <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="E64" s="8"/>
+      <c r="E64" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -4297,7 +4681,9 @@
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="E65" s="8"/>
+      <c r="E65" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -4337,7 +4723,9 @@
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
-      <c r="E66" s="8"/>
+      <c r="E66" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -4577,8 +4965,6 @@
     <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
@@ -4618,585 +5004,549 @@
     </row>
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="10"/>
-      <c r="Y73" s="10"/>
-      <c r="Z73" s="10"/>
-      <c r="AA73" s="10"/>
-      <c r="AB73" s="10"/>
-      <c r="AC73" s="10"/>
-      <c r="AD73" s="10"/>
-      <c r="AE73" s="10"/>
-      <c r="AF73" s="10"/>
-      <c r="AG73" s="10"/>
-      <c r="AH73" s="10"/>
-      <c r="AI73" s="10"/>
-      <c r="AJ73" s="10"/>
-      <c r="AK73" s="10"/>
-      <c r="AL73" s="10"/>
-      <c r="AM73" s="11"/>
+      <c r="B73" s="6"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="8"/>
+      <c r="AK73" s="8"/>
+      <c r="AL73" s="8"/>
+      <c r="AM73" s="7"/>
       <c r="AN73" s="7"/>
     </row>
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="10"/>
-      <c r="X74" s="10"/>
-      <c r="Y74" s="10"/>
-      <c r="Z74" s="10"/>
-      <c r="AA74" s="10"/>
-      <c r="AB74" s="10"/>
-      <c r="AC74" s="10"/>
-      <c r="AD74" s="10"/>
-      <c r="AE74" s="10"/>
-      <c r="AF74" s="10"/>
-      <c r="AG74" s="10"/>
-      <c r="AH74" s="10"/>
-      <c r="AI74" s="10"/>
-      <c r="AJ74" s="10"/>
-      <c r="AK74" s="10"/>
-      <c r="AL74" s="10"/>
-      <c r="AM74" s="10"/>
-      <c r="AN74" s="11"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="8"/>
+      <c r="AG74" s="8"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="8"/>
+      <c r="AK74" s="8"/>
+      <c r="AL74" s="8"/>
+      <c r="AM74" s="7"/>
+      <c r="AN74" s="7"/>
     </row>
     <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
-      <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
-      <c r="AD75" s="4"/>
-      <c r="AE75" s="4"/>
-      <c r="AF75" s="4"/>
-      <c r="AG75" s="4"/>
-      <c r="AH75" s="4"/>
-      <c r="AI75" s="4"/>
-      <c r="AJ75" s="4"/>
-      <c r="AK75" s="4"/>
-      <c r="AL75" s="4"/>
-      <c r="AM75" s="4"/>
-      <c r="AN75" s="5"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="8"/>
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="8"/>
+      <c r="AG75" s="8"/>
+      <c r="AH75" s="8"/>
+      <c r="AI75" s="8"/>
+      <c r="AJ75" s="8"/>
+      <c r="AK75" s="8"/>
+      <c r="AL75" s="8"/>
+      <c r="AM75" s="7"/>
+      <c r="AN75" s="7"/>
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
-      <c r="B76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-      <c r="AE76" s="4"/>
-      <c r="AF76" s="4"/>
-      <c r="AG76" s="4"/>
-      <c r="AH76" s="4"/>
-      <c r="AI76" s="4"/>
-      <c r="AJ76" s="4"/>
-      <c r="AK76" s="4"/>
-      <c r="AL76" s="4"/>
-      <c r="AM76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
+      <c r="AB76" s="8"/>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="8"/>
+      <c r="AE76" s="8"/>
+      <c r="AF76" s="8"/>
+      <c r="AG76" s="8"/>
+      <c r="AH76" s="8"/>
+      <c r="AI76" s="8"/>
+      <c r="AJ76" s="8"/>
+      <c r="AK76" s="8"/>
+      <c r="AL76" s="8"/>
+      <c r="AM76" s="7"/>
       <c r="AN76" s="7"/>
     </row>
     <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
-      <c r="AB77" s="2"/>
-      <c r="AC77" s="2"/>
-      <c r="AD77" s="2"/>
-      <c r="AE77" s="2"/>
-      <c r="AF77" s="2"/>
-      <c r="AG77" s="2"/>
-      <c r="AH77" s="2"/>
-      <c r="AI77" s="2"/>
-      <c r="AJ77" s="2"/>
-      <c r="AK77" s="2"/>
-      <c r="AL77" s="2"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="8"/>
+      <c r="AB77" s="8"/>
+      <c r="AC77" s="8"/>
+      <c r="AD77" s="8"/>
+      <c r="AE77" s="8"/>
+      <c r="AF77" s="8"/>
+      <c r="AG77" s="8"/>
+      <c r="AH77" s="8"/>
+      <c r="AI77" s="8"/>
+      <c r="AJ77" s="8"/>
+      <c r="AK77" s="8"/>
+      <c r="AL77" s="8"/>
       <c r="AM77" s="7"/>
       <c r="AN77" s="7"/>
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="16"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M78" s="15"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="T78" s="17"/>
-      <c r="U78" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="V78" s="17"/>
-      <c r="W78" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="17"/>
-      <c r="AA78" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB78" s="15"/>
-      <c r="AC78" s="17"/>
-      <c r="AD78" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE78" s="15"/>
-      <c r="AF78" s="15"/>
-      <c r="AG78" s="15"/>
-      <c r="AH78" s="15"/>
-      <c r="AI78" s="15"/>
-      <c r="AJ78" s="15"/>
-      <c r="AK78" s="15"/>
-      <c r="AL78" s="15"/>
-      <c r="AM78" s="18"/>
+      <c r="B78" s="6"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="8"/>
+      <c r="AJ78" s="8"/>
+      <c r="AK78" s="8"/>
+      <c r="AL78" s="8"/>
+      <c r="AM78" s="7"/>
       <c r="AN78" s="7"/>
     </row>
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13">
-        <v>1</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I79" s="16"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M79" s="15"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="14"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="17"/>
-      <c r="S79" s="14"/>
-      <c r="T79" s="17"/>
-      <c r="U79" s="14"/>
-      <c r="V79" s="17"/>
-      <c r="W79" s="14"/>
-      <c r="X79" s="15"/>
-      <c r="Y79" s="15"/>
-      <c r="Z79" s="17"/>
-      <c r="AA79" s="14"/>
-      <c r="AB79" s="15"/>
-      <c r="AC79" s="17"/>
-      <c r="AD79" s="14"/>
-      <c r="AE79" s="15"/>
-      <c r="AF79" s="15"/>
-      <c r="AG79" s="15"/>
-      <c r="AH79" s="15"/>
-      <c r="AI79" s="15"/>
-      <c r="AJ79" s="15"/>
-      <c r="AK79" s="15"/>
-      <c r="AL79" s="15"/>
-      <c r="AM79" s="18"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="8"/>
+      <c r="AB79" s="8"/>
+      <c r="AC79" s="8"/>
+      <c r="AD79" s="8"/>
+      <c r="AE79" s="8"/>
+      <c r="AF79" s="8"/>
+      <c r="AG79" s="8"/>
+      <c r="AH79" s="8"/>
+      <c r="AI79" s="8"/>
+      <c r="AJ79" s="8"/>
+      <c r="AK79" s="8"/>
+      <c r="AL79" s="8"/>
+      <c r="AM79" s="7"/>
       <c r="AN79" s="7"/>
     </row>
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13">
-        <v>2</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I80" s="16"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M80" s="15"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="14"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="14"/>
-      <c r="T80" s="17"/>
-      <c r="U80" s="14"/>
-      <c r="V80" s="17"/>
-      <c r="W80" s="14"/>
-      <c r="X80" s="15"/>
-      <c r="Y80" s="15"/>
-      <c r="Z80" s="17"/>
-      <c r="AA80" s="14"/>
-      <c r="AB80" s="15"/>
-      <c r="AC80" s="17"/>
-      <c r="AD80" s="14"/>
-      <c r="AE80" s="15"/>
-      <c r="AF80" s="15"/>
-      <c r="AG80" s="15"/>
-      <c r="AH80" s="15"/>
-      <c r="AI80" s="15"/>
-      <c r="AJ80" s="15"/>
-      <c r="AK80" s="15"/>
-      <c r="AL80" s="15"/>
-      <c r="AM80" s="18"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="10"/>
+      <c r="AB80" s="10"/>
+      <c r="AC80" s="10"/>
+      <c r="AD80" s="10"/>
+      <c r="AE80" s="10"/>
+      <c r="AF80" s="10"/>
+      <c r="AG80" s="10"/>
+      <c r="AH80" s="10"/>
+      <c r="AI80" s="10"/>
+      <c r="AJ80" s="10"/>
+      <c r="AK80" s="10"/>
+      <c r="AL80" s="10"/>
+      <c r="AM80" s="11"/>
       <c r="AN80" s="7"/>
     </row>
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="6"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13">
-        <v>3</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I81" s="16"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M81" s="15"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="17"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="17"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="17"/>
-      <c r="W81" s="14"/>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="17"/>
-      <c r="AA81" s="14"/>
-      <c r="AB81" s="15"/>
-      <c r="AC81" s="17"/>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="15"/>
-      <c r="AF81" s="15"/>
-      <c r="AG81" s="15"/>
-      <c r="AH81" s="15"/>
-      <c r="AI81" s="15"/>
-      <c r="AJ81" s="15"/>
-      <c r="AK81" s="15"/>
-      <c r="AL81" s="15"/>
-      <c r="AM81" s="18"/>
-      <c r="AN81" s="7"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="10"/>
+      <c r="AA81" s="10"/>
+      <c r="AB81" s="10"/>
+      <c r="AC81" s="10"/>
+      <c r="AD81" s="10"/>
+      <c r="AE81" s="10"/>
+      <c r="AF81" s="10"/>
+      <c r="AG81" s="10"/>
+      <c r="AH81" s="10"/>
+      <c r="AI81" s="10"/>
+      <c r="AJ81" s="10"/>
+      <c r="AK81" s="10"/>
+      <c r="AL81" s="10"/>
+      <c r="AM81" s="10"/>
+      <c r="AN81" s="11"/>
     </row>
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="6"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="14"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="17"/>
-      <c r="U82" s="14"/>
-      <c r="V82" s="17"/>
-      <c r="W82" s="14"/>
-      <c r="X82" s="15"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="17"/>
-      <c r="AA82" s="14"/>
-      <c r="AB82" s="15"/>
-      <c r="AC82" s="17"/>
-      <c r="AD82" s="14"/>
-      <c r="AE82" s="15"/>
-      <c r="AF82" s="15"/>
-      <c r="AG82" s="15"/>
-      <c r="AH82" s="15"/>
-      <c r="AI82" s="15"/>
-      <c r="AJ82" s="15"/>
-      <c r="AK82" s="15"/>
-      <c r="AL82" s="15"/>
-      <c r="AM82" s="18"/>
-      <c r="AN82" s="7"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+      <c r="AD82" s="4"/>
+      <c r="AE82" s="4"/>
+      <c r="AF82" s="4"/>
+      <c r="AG82" s="4"/>
+      <c r="AH82" s="4"/>
+      <c r="AI82" s="4"/>
+      <c r="AJ82" s="4"/>
+      <c r="AK82" s="4"/>
+      <c r="AL82" s="4"/>
+      <c r="AM82" s="4"/>
+      <c r="AN82" s="5"/>
     </row>
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="17"/>
-      <c r="U83" s="14"/>
-      <c r="V83" s="17"/>
-      <c r="W83" s="14"/>
-      <c r="X83" s="15"/>
-      <c r="Y83" s="15"/>
-      <c r="Z83" s="17"/>
-      <c r="AA83" s="14"/>
-      <c r="AB83" s="15"/>
-      <c r="AC83" s="17"/>
-      <c r="AD83" s="14"/>
-      <c r="AE83" s="15"/>
-      <c r="AF83" s="15"/>
-      <c r="AG83" s="15"/>
-      <c r="AH83" s="15"/>
-      <c r="AI83" s="15"/>
-      <c r="AJ83" s="15"/>
-      <c r="AK83" s="15"/>
-      <c r="AL83" s="15"/>
-      <c r="AM83" s="18"/>
+      <c r="B83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+      <c r="AD83" s="4"/>
+      <c r="AE83" s="4"/>
+      <c r="AF83" s="4"/>
+      <c r="AG83" s="4"/>
+      <c r="AH83" s="4"/>
+      <c r="AI83" s="4"/>
+      <c r="AJ83" s="4"/>
+      <c r="AK83" s="4"/>
+      <c r="AL83" s="4"/>
+      <c r="AM83" s="5"/>
       <c r="AN83" s="7"/>
     </row>
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="17"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="17"/>
-      <c r="W84" s="14"/>
-      <c r="X84" s="15"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="17"/>
-      <c r="AA84" s="14"/>
-      <c r="AB84" s="15"/>
-      <c r="AC84" s="17"/>
-      <c r="AD84" s="14"/>
-      <c r="AE84" s="15"/>
-      <c r="AF84" s="15"/>
-      <c r="AG84" s="15"/>
-      <c r="AH84" s="15"/>
-      <c r="AI84" s="15"/>
-      <c r="AJ84" s="15"/>
-      <c r="AK84" s="15"/>
-      <c r="AL84" s="15"/>
-      <c r="AM84" s="18"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
+      <c r="AF84" s="2"/>
+      <c r="AG84" s="2"/>
+      <c r="AH84" s="2"/>
+      <c r="AI84" s="2"/>
+      <c r="AJ84" s="2"/>
+      <c r="AK84" s="2"/>
+      <c r="AL84" s="2"/>
+      <c r="AM84" s="7"/>
       <c r="AN84" s="7"/>
     </row>
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
-      <c r="B85" s="12"/>
+      <c r="B85" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
+      <c r="D85" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
+      <c r="H85" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
-      <c r="L85" s="14"/>
+      <c r="L85" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
-      <c r="O85" s="14"/>
+      <c r="O85" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
       <c r="R85" s="17"/>
-      <c r="S85" s="14"/>
+      <c r="S85" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="T85" s="17"/>
-      <c r="U85" s="14"/>
+      <c r="U85" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="V85" s="17"/>
-      <c r="W85" s="14"/>
+      <c r="W85" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
-      <c r="AA85" s="14"/>
+      <c r="AA85" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
-      <c r="AD85" s="14"/>
+      <c r="AD85" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="AE85" s="15"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="15"/>
@@ -5211,16 +5561,24 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
+      <c r="C86" s="13">
+        <v>1</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
+      <c r="H86" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
-      <c r="L86" s="14"/>
+      <c r="L86" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
       <c r="O86" s="14"/>
@@ -5253,16 +5611,24 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
+      <c r="C87" s="13">
+        <v>2</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="14"/>
+      <c r="H87" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
-      <c r="L87" s="14"/>
+      <c r="L87" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
       <c r="O87" s="14"/>
@@ -5295,16 +5661,24 @@
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
+      <c r="C88" s="13">
+        <v>3</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="13"/>
-      <c r="H88" s="14"/>
+      <c r="H88" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="I88" s="16"/>
       <c r="J88" s="15"/>
       <c r="K88" s="17"/>
-      <c r="L88" s="14"/>
+      <c r="L88" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>
       <c r="O88" s="14"/>
@@ -5337,19 +5711,29 @@
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
+      <c r="C89" s="13">
+        <v>4</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="14"/>
+      <c r="H89" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I89" s="16"/>
       <c r="J89" s="15"/>
       <c r="K89" s="17"/>
-      <c r="L89" s="14"/>
+      <c r="L89" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="M89" s="15"/>
       <c r="N89" s="17"/>
-      <c r="O89" s="14"/>
+      <c r="O89" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
       <c r="R89" s="17"/>
@@ -5379,16 +5763,24 @@
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
+      <c r="C90" s="13">
+        <v>5</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="14"/>
+      <c r="H90" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="I90" s="16"/>
       <c r="J90" s="15"/>
       <c r="K90" s="17"/>
-      <c r="L90" s="14"/>
+      <c r="L90" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="M90" s="15"/>
       <c r="N90" s="17"/>
       <c r="O90" s="14"/>
@@ -5421,16 +5813,24 @@
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
+      <c r="C91" s="13">
+        <v>6</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="14"/>
+      <c r="H91" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="I91" s="16"/>
       <c r="J91" s="15"/>
       <c r="K91" s="17"/>
-      <c r="L91" s="14"/>
+      <c r="L91" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="M91" s="15"/>
       <c r="N91" s="17"/>
       <c r="O91" s="14"/>
@@ -5463,16 +5863,24 @@
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
+      <c r="C92" s="13">
+        <v>7</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="13"/>
-      <c r="H92" s="14"/>
+      <c r="H92" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="I92" s="16"/>
       <c r="J92" s="15"/>
       <c r="K92" s="17"/>
-      <c r="L92" s="14"/>
+      <c r="L92" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="M92" s="15"/>
       <c r="N92" s="17"/>
       <c r="O92" s="14"/>
@@ -5490,7 +5898,9 @@
       <c r="AA92" s="14"/>
       <c r="AB92" s="15"/>
       <c r="AC92" s="17"/>
-      <c r="AD92" s="14"/>
+      <c r="AD92" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="AE92" s="15"/>
       <c r="AF92" s="15"/>
       <c r="AG92" s="15"/>
@@ -6175,46 +6585,382 @@
       <c r="AN108" s="7"/>
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="9"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="10"/>
-      <c r="O109" s="10"/>
-      <c r="P109" s="10"/>
-      <c r="Q109" s="10"/>
-      <c r="R109" s="10"/>
-      <c r="S109" s="10"/>
-      <c r="T109" s="10"/>
-      <c r="U109" s="10"/>
-      <c r="V109" s="10"/>
-      <c r="W109" s="10"/>
-      <c r="X109" s="10"/>
-      <c r="Y109" s="10"/>
-      <c r="Z109" s="10"/>
-      <c r="AA109" s="10"/>
-      <c r="AB109" s="10"/>
-      <c r="AC109" s="10"/>
-      <c r="AD109" s="10"/>
-      <c r="AE109" s="10"/>
-      <c r="AF109" s="10"/>
-      <c r="AG109" s="10"/>
-      <c r="AH109" s="10"/>
-      <c r="AI109" s="10"/>
-      <c r="AJ109" s="10"/>
-      <c r="AK109" s="10"/>
-      <c r="AL109" s="10"/>
-      <c r="AM109" s="10"/>
-      <c r="AN109" s="11"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="14"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="14"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="14"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="14"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="17"/>
+      <c r="AD109" s="14"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+      <c r="AG109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AI109" s="15"/>
+      <c r="AJ109" s="15"/>
+      <c r="AK109" s="15"/>
+      <c r="AL109" s="15"/>
+      <c r="AM109" s="18"/>
+      <c r="AN109" s="7"/>
+    </row>
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="6"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="14"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="14"/>
+      <c r="V110" s="17"/>
+      <c r="W110" s="14"/>
+      <c r="X110" s="15"/>
+      <c r="Y110" s="15"/>
+      <c r="Z110" s="17"/>
+      <c r="AA110" s="14"/>
+      <c r="AB110" s="15"/>
+      <c r="AC110" s="17"/>
+      <c r="AD110" s="14"/>
+      <c r="AE110" s="15"/>
+      <c r="AF110" s="15"/>
+      <c r="AG110" s="15"/>
+      <c r="AH110" s="15"/>
+      <c r="AI110" s="15"/>
+      <c r="AJ110" s="15"/>
+      <c r="AK110" s="15"/>
+      <c r="AL110" s="15"/>
+      <c r="AM110" s="18"/>
+      <c r="AN110" s="7"/>
+    </row>
+    <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="6"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="15"/>
+      <c r="R111" s="17"/>
+      <c r="S111" s="14"/>
+      <c r="T111" s="17"/>
+      <c r="U111" s="14"/>
+      <c r="V111" s="17"/>
+      <c r="W111" s="14"/>
+      <c r="X111" s="15"/>
+      <c r="Y111" s="15"/>
+      <c r="Z111" s="17"/>
+      <c r="AA111" s="14"/>
+      <c r="AB111" s="15"/>
+      <c r="AC111" s="17"/>
+      <c r="AD111" s="14"/>
+      <c r="AE111" s="15"/>
+      <c r="AF111" s="15"/>
+      <c r="AG111" s="15"/>
+      <c r="AH111" s="15"/>
+      <c r="AI111" s="15"/>
+      <c r="AJ111" s="15"/>
+      <c r="AK111" s="15"/>
+      <c r="AL111" s="15"/>
+      <c r="AM111" s="18"/>
+      <c r="AN111" s="7"/>
+    </row>
+    <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="6"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="14"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="15"/>
+      <c r="R112" s="17"/>
+      <c r="S112" s="14"/>
+      <c r="T112" s="17"/>
+      <c r="U112" s="14"/>
+      <c r="V112" s="17"/>
+      <c r="W112" s="14"/>
+      <c r="X112" s="15"/>
+      <c r="Y112" s="15"/>
+      <c r="Z112" s="17"/>
+      <c r="AA112" s="14"/>
+      <c r="AB112" s="15"/>
+      <c r="AC112" s="17"/>
+      <c r="AD112" s="14"/>
+      <c r="AE112" s="15"/>
+      <c r="AF112" s="15"/>
+      <c r="AG112" s="15"/>
+      <c r="AH112" s="15"/>
+      <c r="AI112" s="15"/>
+      <c r="AJ112" s="15"/>
+      <c r="AK112" s="15"/>
+      <c r="AL112" s="15"/>
+      <c r="AM112" s="18"/>
+      <c r="AN112" s="7"/>
+    </row>
+    <row r="113" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="6"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="14"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="14"/>
+      <c r="P113" s="15"/>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="17"/>
+      <c r="S113" s="14"/>
+      <c r="T113" s="17"/>
+      <c r="U113" s="14"/>
+      <c r="V113" s="17"/>
+      <c r="W113" s="14"/>
+      <c r="X113" s="15"/>
+      <c r="Y113" s="15"/>
+      <c r="Z113" s="17"/>
+      <c r="AA113" s="14"/>
+      <c r="AB113" s="15"/>
+      <c r="AC113" s="17"/>
+      <c r="AD113" s="14"/>
+      <c r="AE113" s="15"/>
+      <c r="AF113" s="15"/>
+      <c r="AG113" s="15"/>
+      <c r="AH113" s="15"/>
+      <c r="AI113" s="15"/>
+      <c r="AJ113" s="15"/>
+      <c r="AK113" s="15"/>
+      <c r="AL113" s="15"/>
+      <c r="AM113" s="18"/>
+      <c r="AN113" s="7"/>
+    </row>
+    <row r="114" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="6"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="14"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="15"/>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="17"/>
+      <c r="S114" s="14"/>
+      <c r="T114" s="17"/>
+      <c r="U114" s="14"/>
+      <c r="V114" s="17"/>
+      <c r="W114" s="14"/>
+      <c r="X114" s="15"/>
+      <c r="Y114" s="15"/>
+      <c r="Z114" s="17"/>
+      <c r="AA114" s="14"/>
+      <c r="AB114" s="15"/>
+      <c r="AC114" s="17"/>
+      <c r="AD114" s="14"/>
+      <c r="AE114" s="15"/>
+      <c r="AF114" s="15"/>
+      <c r="AG114" s="15"/>
+      <c r="AH114" s="15"/>
+      <c r="AI114" s="15"/>
+      <c r="AJ114" s="15"/>
+      <c r="AK114" s="15"/>
+      <c r="AL114" s="15"/>
+      <c r="AM114" s="18"/>
+      <c r="AN114" s="7"/>
+    </row>
+    <row r="115" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="6"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="14"/>
+      <c r="M115" s="15"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="14"/>
+      <c r="P115" s="15"/>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="17"/>
+      <c r="S115" s="14"/>
+      <c r="T115" s="17"/>
+      <c r="U115" s="14"/>
+      <c r="V115" s="17"/>
+      <c r="W115" s="14"/>
+      <c r="X115" s="15"/>
+      <c r="Y115" s="15"/>
+      <c r="Z115" s="17"/>
+      <c r="AA115" s="14"/>
+      <c r="AB115" s="15"/>
+      <c r="AC115" s="17"/>
+      <c r="AD115" s="14"/>
+      <c r="AE115" s="15"/>
+      <c r="AF115" s="15"/>
+      <c r="AG115" s="15"/>
+      <c r="AH115" s="15"/>
+      <c r="AI115" s="15"/>
+      <c r="AJ115" s="15"/>
+      <c r="AK115" s="15"/>
+      <c r="AL115" s="15"/>
+      <c r="AM115" s="18"/>
+      <c r="AN115" s="7"/>
+    </row>
+    <row r="116" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="6"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="14"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="14"/>
+      <c r="P116" s="15"/>
+      <c r="Q116" s="15"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="14"/>
+      <c r="T116" s="17"/>
+      <c r="U116" s="14"/>
+      <c r="V116" s="17"/>
+      <c r="W116" s="14"/>
+      <c r="X116" s="15"/>
+      <c r="Y116" s="15"/>
+      <c r="Z116" s="17"/>
+      <c r="AA116" s="14"/>
+      <c r="AB116" s="15"/>
+      <c r="AC116" s="17"/>
+      <c r="AD116" s="14"/>
+      <c r="AE116" s="15"/>
+      <c r="AF116" s="15"/>
+      <c r="AG116" s="15"/>
+      <c r="AH116" s="15"/>
+      <c r="AI116" s="15"/>
+      <c r="AJ116" s="15"/>
+      <c r="AK116" s="15"/>
+      <c r="AL116" s="15"/>
+      <c r="AM116" s="18"/>
+      <c r="AN116" s="7"/>
+    </row>
+    <row r="117" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="9"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="10"/>
+      <c r="Q117" s="10"/>
+      <c r="R117" s="10"/>
+      <c r="S117" s="10"/>
+      <c r="T117" s="10"/>
+      <c r="U117" s="10"/>
+      <c r="V117" s="10"/>
+      <c r="W117" s="10"/>
+      <c r="X117" s="10"/>
+      <c r="Y117" s="10"/>
+      <c r="Z117" s="10"/>
+      <c r="AA117" s="10"/>
+      <c r="AB117" s="10"/>
+      <c r="AC117" s="10"/>
+      <c r="AD117" s="10"/>
+      <c r="AE117" s="10"/>
+      <c r="AF117" s="10"/>
+      <c r="AG117" s="10"/>
+      <c r="AH117" s="10"/>
+      <c r="AI117" s="10"/>
+      <c r="AJ117" s="10"/>
+      <c r="AK117" s="10"/>
+      <c r="AL117" s="10"/>
+      <c r="AM117" s="10"/>
+      <c r="AN117" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/doc/外部設計/04_外部設計書(カレンダー画面)_チーム名 のコピー.xlsx
+++ b/doc/外部設計/04_外部設計書(カレンダー画面)_チーム名 のコピー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A754150-3C60-4A99-811A-BF57E06A5CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C5AB5A-6B8B-40C0-BF42-52387AA012F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -446,10 +446,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>予定がある日に印をつける（〇を付ける）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>日付部分をタップすると、日付詳細画面に遷移。</t>
     <rPh sb="0" eb="4">
       <t>ヒヅケブブン</t>
@@ -476,6 +472,10 @@
     <rPh sb="27" eb="29">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>予定がある日に印をつける（●を付ける）</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4060,7 +4060,7 @@
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -4228,7 +4228,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="E54" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -5899,7 +5899,7 @@
       <c r="AB92" s="15"/>
       <c r="AC92" s="17"/>
       <c r="AD92" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE92" s="15"/>
       <c r="AF92" s="15"/>

--- a/doc/外部設計/04_外部設計書(カレンダー画面)_チーム名 のコピー.xlsx
+++ b/doc/外部設計/04_外部設計書(カレンダー画面)_チーム名 のコピー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C5AB5A-6B8B-40C0-BF42-52387AA012F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645715D8-3851-4DD9-85E3-8896AED64722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -400,19 +400,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>久保結貴</t>
-    <rPh sb="0" eb="2">
-      <t>クボ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>syuudeen</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -476,6 +463,13 @@
   </si>
   <si>
     <t>予定がある日に印をつける（●を付ける）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>久保</t>
+    <rPh sb="0" eb="2">
+      <t>クボ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -851,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -972,6 +966,9 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2032,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="AS9" sqref="AS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2077,7 +2074,7 @@
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="Z1" s="28"/>
       <c r="AA1" s="28"/>
@@ -2089,7 +2086,9 @@
         <v>4</v>
       </c>
       <c r="AG1" s="42"/>
-      <c r="AH1" s="35"/>
+      <c r="AH1" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="AI1" s="35"/>
       <c r="AJ1" s="35"/>
       <c r="AK1" s="35"/>
@@ -2114,7 +2113,7 @@
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
       <c r="N2" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -2141,7 +2140,9 @@
         <v>3</v>
       </c>
       <c r="AG2" s="39"/>
-      <c r="AH2" s="40"/>
+      <c r="AH2" s="43">
+        <v>45086</v>
+      </c>
       <c r="AI2" s="40"/>
       <c r="AJ2" s="40"/>
       <c r="AK2" s="40"/>
@@ -4060,7 +4061,7 @@
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -4186,7 +4187,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="E53" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4228,7 +4229,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="E54" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -5577,7 +5578,7 @@
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
       <c r="L86" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
@@ -5677,7 +5678,7 @@
       <c r="J88" s="15"/>
       <c r="K88" s="17"/>
       <c r="L88" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>
@@ -5727,12 +5728,12 @@
       <c r="J89" s="15"/>
       <c r="K89" s="17"/>
       <c r="L89" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="17"/>
       <c r="O89" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
@@ -5829,7 +5830,7 @@
       <c r="J91" s="15"/>
       <c r="K91" s="17"/>
       <c r="L91" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="17"/>
@@ -5879,7 +5880,7 @@
       <c r="J92" s="15"/>
       <c r="K92" s="17"/>
       <c r="L92" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="17"/>
@@ -5899,7 +5900,7 @@
       <c r="AB92" s="15"/>
       <c r="AC92" s="17"/>
       <c r="AD92" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE92" s="15"/>
       <c r="AF92" s="15"/>
